--- a/predictions/single/RandomForestRegressor/Fallo Cardiaco.xlsx
+++ b/predictions/single/RandomForestRegressor/Fallo Cardiaco.xlsx
@@ -462,10 +462,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5339009635551355</v>
+        <v>0.5273756464822054</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9893688980121803</v>
+        <v>0.9894988309324044</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/predictions/single/RandomForestRegressor/Fallo Cardiaco.xlsx
+++ b/predictions/single/RandomForestRegressor/Fallo Cardiaco.xlsx
@@ -462,10 +462,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5273756464822054</v>
+        <v>0.5280747526995192</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9894988309324044</v>
+        <v>0.9894849102429809</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/predictions/single/RandomForestRegressor/Fallo Cardiaco.xlsx
+++ b/predictions/single/RandomForestRegressor/Fallo Cardiaco.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,6 +451,11 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>MAE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Tipo</t>
         </is>
       </c>
@@ -462,12 +467,15 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5280747526995192</v>
+        <v>0.5379370305603909</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9894849102429809</v>
-      </c>
-      <c r="D2" t="inlineStr">
+        <v>0.989288531347028</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6137271608150739</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>single</t>
         </is>

--- a/predictions/single/RandomForestRegressor/Fallo Cardiaco.xlsx
+++ b/predictions/single/RandomForestRegressor/Fallo Cardiaco.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>Tipo</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Modelo</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -467,17 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5379370305603909</v>
+        <v>0.5389788899637855</v>
       </c>
       <c r="C2" t="n">
-        <v>0.989288531347028</v>
+        <v>0.9892677857137916</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6137271608150739</v>
+        <v>0.6112735950122063</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>single</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('model', RandomForestRegressor(max_depth=5))])</t>
         </is>
       </c>
     </row>

--- a/predictions/single/RandomForestRegressor/Fallo Cardiaco.xlsx
+++ b/predictions/single/RandomForestRegressor/Fallo Cardiaco.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,16 @@
           <t>Modelo</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Elapsed Time</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>CPU</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -472,13 +482,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5389788899637855</v>
+        <v>0.5379381221575794</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9892677857137916</v>
+        <v>0.9892885096110098</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6112735950122063</v>
+        <v>0.6104905280394304</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -487,8 +497,15 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('model', RandomForestRegressor(max_depth=5))])</t>
-        </is>
+          <t>Pipeline(steps=[('model',
+                 RandomForestRegressor(max_depth=5, n_estimators=150))])</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>0.1228586025167412</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.991</v>
       </c>
     </row>
   </sheetData>

--- a/predictions/single/RandomForestRegressor/Fallo Cardiaco.xlsx
+++ b/predictions/single/RandomForestRegressor/Fallo Cardiaco.xlsx
@@ -482,13 +482,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5379381221575794</v>
+        <v>0.5017750674001765</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9892885096110098</v>
+        <v>0.9900085928278617</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6104905280394304</v>
+        <v>0.5794098811843592</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -497,15 +497,14 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('model',
-                 RandomForestRegressor(max_depth=5, n_estimators=150))])</t>
+          <t>Pipeline(steps=[('model', RandomForestRegressor(max_depth=3, n_estimators=50))])</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.1228586025167412</v>
+        <v>0.1237125578166645</v>
       </c>
       <c r="H2" t="n">
-        <v>0.991</v>
+        <v>0.988</v>
       </c>
     </row>
   </sheetData>

--- a/predictions/single/RandomForestRegressor/Fallo Cardiaco.xlsx
+++ b/predictions/single/RandomForestRegressor/Fallo Cardiaco.xlsx
@@ -482,13 +482,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5017750674001765</v>
+        <v>0.5044668025464504</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9900085928278617</v>
+        <v>0.9899549946648734</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5794098811843592</v>
+        <v>0.5807896047565755</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -501,10 +501,10 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.1237125578166645</v>
+        <v>0.1209129460333012</v>
       </c>
       <c r="H2" t="n">
-        <v>0.988</v>
+        <v>0.99</v>
       </c>
     </row>
   </sheetData>
